--- a/medicine/Enfance/David_Merveille/David_Merveille.xlsx
+++ b/medicine/Enfance/David_Merveille/David_Merveille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Merveille, né le 28 septembre 1968 à Ixelles (région de Bruxelles-Capitale), est un auteur de bande dessinée et illustrateur de livres pour enfants belge. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Merveille naît le 28 septembre 1968 à Ixelles, une commune bruxelloise[1]. Il étudie la communication graphique à La Cambre, Bruxelles[1]. Il travaille pour l’édition jeunesse, la publicité et la presse[1]. Son goût du burlesque, son sens de l’observation et le souci du détail le poussent naturellement vers l’univers de Jacques Tati, auquel il rend hommage en 2006 avec le Jacquot de Monsieur Hulot, empreint d’humour et de poésie aux Éditions du Rouergue[1]. Il est récipiendaire du prix de la semaine Paul Hurtmans du livre de jeunesse pour cet ouvrage[2]. Il est aussi lauréat d’une bourse d'aide à la création en 2008 et 2014 ainsi que d’une bourse d'aide au projet en 2011 de la Fédération Wallonie-Bruxelles[1].
-En outre, il enseigne depuis 1996 à l’Institut Saint-Luc de Bruxelles[3].
-David Merveille vit à Bruxelles en 2019[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Merveille naît le 28 septembre 1968 à Ixelles, une commune bruxelloise. Il étudie la communication graphique à La Cambre, Bruxelles. Il travaille pour l’édition jeunesse, la publicité et la presse. Son goût du burlesque, son sens de l’observation et le souci du détail le poussent naturellement vers l’univers de Jacques Tati, auquel il rend hommage en 2006 avec le Jacquot de Monsieur Hulot, empreint d’humour et de poésie aux Éditions du Rouergue. Il est récipiendaire du prix de la semaine Paul Hurtmans du livre de jeunesse pour cet ouvrage. Il est aussi lauréat d’une bourse d'aide à la création en 2008 et 2014 ainsi que d’une bourse d'aide au projet en 2011 de la Fédération Wallonie-Bruxelles.
+En outre, il enseigne depuis 1996 à l’Institut Saint-Luc de Bruxelles.
+David Merveille vit à Bruxelles en 2019.
 </t>
         </is>
       </c>
@@ -546,64 +560,210 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Hulot Domino, Éditions du Rouergue, Rodez, 1 mars 2007Scénario, dessin et couleurs : David Merveille
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hulot Domino, Éditions du Rouergue, Rodez, 1 mars 2007Scénario, dessin et couleurs : David Merveille
 Hello monsieur Hulot, Rouergue, Rodez, septembre 2012Scénario, dessin et couleurs : David Merveille -  (ISBN 9782812601279),Format à l'italienne
 Monsieur Hulot à la plage, Rouergue, Rodez, 6 mai 2015Scénario, dessin et couleurs : David Merveille -  (ISBN 978-2-8126-0753-0)
 Hulot Domino, Rouergue, Rodez, 16 avril 2019Scénario, dessin et couleurs : David Merveille -  (ISBN 9782812617409)
-Amore[4], Delcourt, coll. « Mirages », Paris, 15 septembre 2021Scénario : Zidrou - Dessin et couleurs : David Merveille -  (ISBN 9782413011224)
-Illustration
-Blanchette la vache sans taches, texte de Zidrou, Nathan, Paris 1992   (ISBN 9782092107577)
+Amore, Delcourt, coll. « Mirages », Paris, 15 septembre 2021Scénario : Zidrou - Dessin et couleurs : David Merveille -  (ISBN 9782413011224)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Merveille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Merveille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blanchette la vache sans taches, texte de Zidrou, Nathan, Paris 1992   (ISBN 9782092107577)
 Jacquot de Monsieur Hulot, Éditions du Rouergue, Rodez, 2006  (ISBN 2-84156-707-9)
 Le Nid, texte de Zidrou, Rouergue, Rodez, 2007  (ISBN 9782841568581)
 L'Abécédaire de Bonjour, Éditions Altiora Sedrap, Toulouse, 2009  (ISBN 9789031727186)
 Fais c'que je dis, pas c'que je fais !, texte de Justine de Lagausie, Seuil jeunesse, Paris, 2013  (ISBN 9782021086591)
 Le Grand Imaginier des Chiffres, Gautier-Languer, 2014  (ISBN 9782013942690)
 À quoi rêvent les crayons le soir, au fond des cartables ?, texte de Zidrou, Mijade, Namur, 2017  (ISBN 9782807700178)
-Poussin, texte de Davide Cali, Éditions Sarbacane, Paris, 2019  (ISBN 9782377311750)
-Artbook
-Tati par Merveille, Champaka Brussels, coll. « Square », Marcinelle, 20 août 2020Scénario, dessin et couleurs : David Merveille -  (ISBN 978-2-390-41013-3),Préface de Pierre Richard.
-Collectifs
-Bruxelles - 20 ans / 20 auteurs[5], Pierre Dejemeppe, Bruxelles, septembre 1999Scénario : Thierry Bellefroid - Dessin : collectif - Couleurs : quadrichromieÉdité à l'occasion des 20 ans de la Région Bruxelles-Capitale avec François Avril, Philippe Berthet, Émile Bravo, Renaud Collin, Nicolas de Crécy, Johan De Moor, André Geerts, Dominique Goblet, Sacha Goerg, Jean-Claude Götting, André Juillard, Régis Lejonc, Jacques de Loustal, Cédric Manche, Vincent Mathy, David Merveille, Ever Meulen, François Schuiten, Thierry Van Hasselt et Bernard Hislaire. Format à l'italienne.
-Titeuforama : 120 variations de Titeuf, Glénat, coll. « Tchô ! La collec... », Grenoble, 3 mai 2023Scénario et couleurs : collectif - Dessin : collectif dont David Merveille -  (ISBN 978-2-344-05844-2)
-Expositions
-Expositions individuelles
-David Merveille - Monsieur Hulot[6], Galerie Huberty-Breyne, Bruxelles du 27 juin au 25 juillet 2020.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Poussin, texte de Davide Cali, Éditions Sarbacane, Paris, 2019  (ISBN 9782377311750)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>David_Merveille</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/David_Merveille</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Artbook</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tati par Merveille, Champaka Brussels, coll. « Square », Marcinelle, 20 août 2020Scénario, dessin et couleurs : David Merveille -  (ISBN 978-2-390-41013-3),Préface de Pierre Richard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Merveille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Merveille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bruxelles - 20 ans / 20 auteurs, Pierre Dejemeppe, Bruxelles, septembre 1999Scénario : Thierry Bellefroid - Dessin : collectif - Couleurs : quadrichromieÉdité à l'occasion des 20 ans de la Région Bruxelles-Capitale avec François Avril, Philippe Berthet, Émile Bravo, Renaud Collin, Nicolas de Crécy, Johan De Moor, André Geerts, Dominique Goblet, Sacha Goerg, Jean-Claude Götting, André Juillard, Régis Lejonc, Jacques de Loustal, Cédric Manche, Vincent Mathy, David Merveille, Ever Meulen, François Schuiten, Thierry Van Hasselt et Bernard Hislaire. Format à l'italienne.
+Titeuforama : 120 variations de Titeuf, Glénat, coll. « Tchô ! La collec... », Grenoble, 3 mai 2023Scénario et couleurs : collectif - Dessin : collectif dont David Merveille -  (ISBN 978-2-344-05844-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_Merveille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Merveille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Expositions individuelles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>David Merveille - Monsieur Hulot, Galerie Huberty-Breyne, Bruxelles du 27 juin au 25 juillet 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>David_Merveille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Merveille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 : prix Québec/Wallonie-Bruxelles de littérature de jeunesse[7] pour Le Jacquot de Monsieur Hulot ;
-2011 : prix Libbylit[8], décerné par l'IBBY, catégorie Album belge, pour Hello, Monsieur Hulot ;
-2012 : prix de la semaine Paul Hurtmans du livre de jeunesse pour Hello monsieur Hulot[2] ;
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2007 : prix Québec/Wallonie-Bruxelles de littérature de jeunesse pour Le Jacquot de Monsieur Hulot ;
+2011 : prix Libbylit, décerné par l'IBBY, catégorie Album belge, pour Hello, Monsieur Hulot ;
+2012 : prix de la semaine Paul Hurtmans du livre de jeunesse pour Hello monsieur Hulot ;
 2020 :
- Mention Prix BolognaRagazzi[9], Foire du livre de jeunesse de Bologne, catégorie spéciale Cinéma, pour les albums Hello Monsieur Hulot, Monsieur Hulot à la plage et Hulot domino ;
- prix Enfantaisie[10], catégorie Album, pour Poussin, avec Davide Cali.</t>
+ Mention Prix BolognaRagazzi, Foire du livre de jeunesse de Bologne, catégorie spéciale Cinéma, pour les albums Hello Monsieur Hulot, Monsieur Hulot à la plage et Hulot domino ;
+ prix Enfantaisie, catégorie Album, pour Poussin, avec Davide Cali.</t>
         </is>
       </c>
     </row>
